--- a/data/input/employee_absence_data_26.xlsx
+++ b/data/input/employee_absence_data_26.xlsx
@@ -464,74 +464,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>93485</v>
+        <v>27665</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Danilo Rodrigues</t>
+          <t>Aylla Ribeiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45103</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>8448.02</v>
+        <v>6609.42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>85608</v>
+        <v>86218</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liz Sampaio</t>
+          <t>Leonardo Viana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="G3" t="n">
-        <v>9992.1</v>
+        <v>3954.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13096</v>
+        <v>98999</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dante Silveira</t>
+          <t>Isabelly Fernandes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,143 +540,143 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45078</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>8189.09</v>
+        <v>3145.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>70935</v>
+        <v>9042</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nina Abreu</t>
+          <t>Cecília Silva</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45087</v>
+        <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>12373.22</v>
+        <v>9650.959999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>95520</v>
+        <v>31093</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dra. Sophie Borges</t>
+          <t>Dr. Marcos Vinicius Ramos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45095</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>10441.31</v>
+        <v>9436.040000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>24833</v>
+        <v>89341</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Thales Porto</t>
+          <t>Arthur Gabriel Campos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45104</v>
+        <v>45099</v>
       </c>
       <c r="G7" t="n">
-        <v>7408.02</v>
+        <v>4233.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24678</v>
+        <v>29693</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Théo Azevedo</t>
+          <t>Rodrigo da Mata</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45104</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>4481.97</v>
+        <v>6309.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18066</v>
+        <v>21651</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Srta. Ayla Silva</t>
+          <t>André Ribeiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -685,71 +685,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45089</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>8706.940000000001</v>
+        <v>7407.78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16336</v>
+        <v>40132</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luan da Cruz</t>
+          <t>Srta. Ayla Dias</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45089</v>
+        <v>45081</v>
       </c>
       <c r="G10" t="n">
-        <v>5137.57</v>
+        <v>8216.52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>63941</v>
+        <v>9813</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Julia Cassiano</t>
+          <t>Júlia Silva</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="G11" t="n">
-        <v>12379.63</v>
+        <v>4322.96</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_26.xlsx
+++ b/data/input/employee_absence_data_26.xlsx
@@ -464,74 +464,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27665</v>
+        <v>20253</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aylla Ribeiro</t>
+          <t>Alice Lopes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45078</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>6609.42</v>
+        <v>7259.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>86218</v>
+        <v>39049</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leonardo Viana</t>
+          <t>Ayla Vargas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45105</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>3954.66</v>
+        <v>3390.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98999</v>
+        <v>8204</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isabelly Fernandes</t>
+          <t>Maria Eduarda Mendes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,51 +540,51 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45081</v>
+        <v>45086</v>
       </c>
       <c r="G4" t="n">
-        <v>3145.08</v>
+        <v>8600.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9042</v>
+        <v>15988</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cecília Silva</t>
+          <t>Carlos Eduardo da Rosa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45091</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>9650.959999999999</v>
+        <v>6301.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>31093</v>
+        <v>16278</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Marcos Vinicius Ramos</t>
+          <t>Dr. Vinícius Mendes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,155 +601,155 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45085</v>
+        <v>45079</v>
       </c>
       <c r="G6" t="n">
-        <v>9436.040000000001</v>
+        <v>4363.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89341</v>
+        <v>710</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arthur Gabriel Campos</t>
+          <t>Brenda Nunes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45099</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>4233.34</v>
+        <v>4557.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>29693</v>
+        <v>3903</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rodrigo da Mata</t>
+          <t>Sr. Mateus Rezende</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45083</v>
+        <v>45095</v>
       </c>
       <c r="G8" t="n">
-        <v>6309.7</v>
+        <v>6104.35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>21651</v>
+        <v>61974</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>André Ribeiro</t>
+          <t>Vicente Ribeiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45088</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>7407.78</v>
+        <v>2845.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>40132</v>
+        <v>99203</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Srta. Ayla Dias</t>
+          <t>Sra. Alexia Santos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45081</v>
+        <v>45097</v>
       </c>
       <c r="G10" t="n">
-        <v>8216.52</v>
+        <v>8548.969999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9813</v>
+        <v>43124</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Júlia Silva</t>
+          <t>Lorena Viana</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45098</v>
+        <v>45096</v>
       </c>
       <c r="G11" t="n">
-        <v>4322.96</v>
+        <v>2778.01</v>
       </c>
     </row>
   </sheetData>
